--- a/SAM 1.3/arquivo_cliente/arquivo_consolidado_todos.xlsx
+++ b/SAM 1.3/arquivo_cliente/arquivo_consolidado_todos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM 1.2 (Padronizado)\arquivo_cliente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM 1.3\arquivo_cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEB9AB4-0D8E-485A-93ED-46776B610DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162693BF-C30B-43E7-959D-135EA95492CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="riachuelo" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="fleury" sheetId="4" r:id="rId5"/>
     <sheet name="daki" sheetId="1" r:id="rId6"/>
     <sheet name="dpsp" sheetId="3" r:id="rId7"/>
+    <sheet name="grpcom" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">daki!$A$1:$AP$1</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="98">
   <si>
     <t>Nº da Conta</t>
   </si>
@@ -322,13 +323,22 @@
   </si>
   <si>
     <t>Centro de Custo</t>
+  </si>
+  <si>
+    <t>Nota Fiscal</t>
+  </si>
+  <si>
+    <t>Data Emissão</t>
+  </si>
+  <si>
+    <t>Empresa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -424,6 +434,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -505,7 +528,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -547,6 +570,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1965,7 +1994,7 @@
   <customSheetViews>
     <customSheetView guid="{CB75592A-5940-456F-98EA-7CA21283A3F8}" filter="1" showAutoFilter="1">
       <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-      <autoFilter ref="A1:AP140" xr:uid="{488C422B-269E-4E50-8566-8A9F88A7FEAE}">
+      <autoFilter ref="A1:AP140" xr:uid="{4338177B-8CE1-454D-B47F-ED115EA2589A}">
         <filterColumn colId="0">
           <filters>
             <filter val="116502452"/>
@@ -2009,8 +2038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE4786A-9DCB-4419-AA40-C41322BD01A1}">
   <dimension ref="A1:AM1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AK1" sqref="AK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2176,4 +2205,162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2504150-CAC2-4F17-A0B4-855E8C700EC4}">
+  <dimension ref="A1:AU1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AN1:AU1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:47" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN1" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ1" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR1" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS1" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT1" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="AU1" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>